--- a/得分变量提示词.xlsx
+++ b/得分变量提示词.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\工作\浙大城院\代码\大模型\AutoRAG\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F144089-262E-47CE-97CE-E767C06FC57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="29868" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>score_variable</t>
   </si>
@@ -36,74 +38,51 @@
     <t>非化石能源发展和应用的规划目标</t>
   </si>
   <si>
-    <t>文件中如果有阐述“明确的非化石能源消费量”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划目标”满足一个得分点，并获得20分。文件中如果有阐述“明确的非化石能源消费比重”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划目标”满足一个得分点，并获得20分。文件中如果有阐述“明确的非化石能源发电装机比重”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划目标”满足一个得分点，并获得20分。文件中如果有阐述“明确的能源结构优化目标”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划目标”满足一个得分点，并获得20分。文件中如果有阐述“明确的能源发展空间布局”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划目标”满足一个得分点，并获得20分。每个得分变量最多可获得100分，每个得分点的分数只能被统计一次，请告诉我这些文件在得分变量“非化石能源发展和应用的规划目标”下一共获得多少分，获得了哪几条得分点，打分的依据是什么。</t>
-  </si>
-  <si>
-    <t>文件中如果有阐述“推进太阳能规模化利用”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划内容”满足一个得分点，并获得20分。文件中如果有阐述“推广天然气项目”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划内容”满足一个得分点，并获得20分。文件中如果有阐述“推进生物质能、水能、风能、低温能等可再生能源开发项目”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划内容”满足一个得分点，并获得20分。文件中如果有阐述“推进可再生能源融合发展”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划内容”满足一个得分点，并获得20分。文件中如果有阐述“建立清洁低碳能源消费体系”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划内容”满足一个得分点，并获得20分。每个得分变量最多可获得100分，每个得分点的分数只能被统计一次。请告诉我这些文件在得分变量“非化石能源发展和应用的规划内容”下一共获得多少分，获得了哪几条得分点，打分的依据是什么。</t>
+    <t>文件中如果有阐述“明确的非化石能源消费量”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划目标”满足一个得分点，并获得 20分。文件中如果有阐述“明确的非化石能源消费比重”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划目标满足一个得分点，并获得20分。文件中如果有阐述“明确的非化石能源发电装机比重的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划目标”满足一个得分点，并获得 20分。文件中如果有阐述“明确的能源结构优化目标”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划目标”满足一个得分点,并获得 20 分。文件中如果有阐述“明确的能源发展空间布局”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划目标”满足一个得分点，并获得 20 分。每个得分变量最多可获得 100分，每个得分点的分数只能被统计一次，请告诉我这些文件在得分变量“非化石能源发展和应用的规划目标”下一共获得多少分，获得了哪几条得分点，打分的依据是什么。</t>
   </si>
   <si>
     <t>非化石能源发展和应用的规划内容</t>
   </si>
   <si>
-    <r>
-      <t>查找相关文件获取关于技术升级项目专项资金补贴占固定资产投资补贴的比例的内容。如果最高的比例大于等于30%，则在“提升生产效率减排的实施保障”指标中的得分变量“专项资金保障程度”得100分；如果最高的比例大于等于22.5%且小于30%，则“专项资金保障程度”这个得分变量得80分；如果最高的比例大于等于15%且小于22.5%，则“专项资金保障程度”这个得分变量得60分；如果最高的比例大于等于7.5%且小于15%，则“专项资金保障程度”这个得分变量得40分；如果最高的比例大于0%且小于7.5%，则“专项资金保障程度”这个得分变量得20分；未明确比例则该得分变量得0分。请告诉我这些文件在得分变量“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>专项资金保障程度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF060607"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”下得多少分，打分的依据是什么。</t>
-    </r>
-  </si>
-  <si>
-    <t>专项资金保障程度</t>
-  </si>
-  <si>
-    <t>地方政府文件中有阐述进一步推进低碳技术发展的措施和方案，并基于绩效考核对政府相关部门进行奖励。文件中如果有“低碳技术相关的专项奖励制度”的相关的概念和内容，意味着在“进一步推进低碳技术发展的措施和方案”指标中的得分变量“基于绩效考核对政府相关部门的奖励”满足一个得分点，并获得25分。文件中如果有“面向所有技术的非专项奖励制度”的相关的概念和内容，意味着在“进一步推进低碳技术发展的措施和方案”指标中的得分变量“基于绩效考核对政府相关部门的奖励”满足一个得分点，并获得25分。文件中如果有“低碳技术相关的专项奖励结果”的相关的概念和内容，意味着在“进一步推进低碳技术发展的措施和方案”指标中的得分变量“基于绩效考核对政府相关部门的奖励”满足一个得分点，并获得25分。文件中如果有“面向所有技术的非专项奖励结果”的相关的概念和内容，意味着在“进一步推进低碳技术发展的措施和方案”指标中的得分变量“基于绩效考核对政府相关部门的奖励”满足一个得分点，并获得25分。每个得分变量最多可获得100分，每个得分点的分数只能被统计一次。请告诉我这些文件在得分变量“基于绩效考核对政府相关部门的奖励”下一共获得多少分。打分的依据是什么。</t>
-  </si>
-  <si>
-    <t>基于绩效考核对政府相关部门的奖励</t>
+    <t>文件中如果有阐述“推进太阳能规模化利用”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划内容”满足一个得分点，并获得20分。文件中如果有阐述“推广天然气项目”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划内容”满足一个得分点，并获得20分。文件中如果有阐述“推进生物质能、水能、风能、低温能等可再生能源开发项目”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划内容”满足一个得分点，并获得20分。文件中如果有阐述“推进可再生能源融合发展”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划内容”满足一个得分点，并获得20分。文件中如果有阐述“建立清洁低碳能源消费体系”的概念和内容，意味着在“能源结构的低碳规划”指标中的得分变量“非化石能源发展和应用的规划内容”满足一个得分点，并获得20分。每个得分变量最多可获得100分，每个得分点的分数只能被统计一次。请告诉我这些文件在得分变量“非化石能源发展和应用的规划内容”下一共获得多少分，获得了哪几条得分点，打分的依据是什么。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF060607"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -111,26 +90,348 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -138,30 +439,328 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -210,7 +809,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -245,7 +844,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -419,72 +1018,59 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
+    <col min="1" max="1" width="33.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="39.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="317.55" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="317.55" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
+    <row r="4" ht="14.4" spans="1:2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="5" ht="14.4" spans="1:2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>